--- a/data/trans_orig/IP07A03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A03-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B673743B-4564-4D10-AF59-53ADFECF856E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B53DD07-EA6A-4DA0-9CE5-D93B343CBF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{85E53167-AE7D-47BC-BDD3-8CE4444756DA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF7F77A4-A346-45ED-93FF-EFDCF892C6A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="428">
   <si>
     <t>Menores según frecuencia de estar contento con su forma de ser en 2007 (Tasa respuesta: 47,15%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>55,06%</t>
   </si>
   <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
   </si>
   <si>
     <t>50,71%</t>
   </si>
   <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
   </si>
   <si>
     <t>52,79%</t>
   </si>
   <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>37,82%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
   </si>
   <si>
     <t>38,74%</t>
   </si>
   <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
   </si>
   <si>
     <t>38,3%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -136,28 +136,28 @@
     <t>4,23%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
   </si>
   <si>
     <t>10,56%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -169,7 +169,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,0%</t>
+    <t>6,97%</t>
   </si>
   <si>
     <t>0%</t>
@@ -181,7 +181,7 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>3,49%</t>
+    <t>3,5%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -190,1135 +190,1129 @@
     <t>1,43%</t>
   </si>
   <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>0,69%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
   </si>
   <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
   </si>
   <si>
     <t>62,84%</t>
   </si>
   <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>5,94%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>0,15%</t>
@@ -1739,7 +1733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5A3B0E-CE90-493B-9914-FC1D5D89F91B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8898BBFB-8C34-438A-8EE2-32885B5AF74D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2599,10 +2593,10 @@
         <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -2611,13 +2605,13 @@
         <v>7252</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,7 +2632,7 @@
         <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2647,13 +2641,13 @@
         <v>732</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2662,13 +2656,13 @@
         <v>732</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,7 +2683,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2704,7 +2698,7 @@
         <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2719,7 +2713,7 @@
         <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,7 +3021,7 @@
         <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,7 +3077,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3102,7 +3096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615BB738-6A4C-4D58-8F81-C1FBA1731701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FDCC1A-C939-4A88-A473-BC8A895E17A9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3119,7 +3113,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3226,13 +3220,13 @@
         <v>23452</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -3241,13 +3235,13 @@
         <v>30777</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>77</v>
@@ -3256,13 +3250,13 @@
         <v>54229</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3271,13 @@
         <v>16837</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -3292,13 +3286,13 @@
         <v>19023</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -3307,13 +3301,13 @@
         <v>35859</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3322,13 @@
         <v>4940</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3343,13 +3337,13 @@
         <v>747</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -3358,13 +3352,13 @@
         <v>5687</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3373,13 @@
         <v>624</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3394,13 +3388,13 @@
         <v>1058</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3409,13 +3403,13 @@
         <v>1681</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,7 +3430,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3445,13 +3439,13 @@
         <v>1478</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3460,13 +3454,13 @@
         <v>1478</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3528,13 @@
         <v>124211</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>143</v>
@@ -3549,13 +3543,13 @@
         <v>101063</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>324</v>
@@ -3564,13 +3558,13 @@
         <v>225274</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3579,13 @@
         <v>87707</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H11" s="7">
         <v>120</v>
@@ -3600,13 +3594,13 @@
         <v>83336</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>247</v>
@@ -3615,13 +3609,13 @@
         <v>171043</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3630,13 @@
         <v>12136</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -3651,13 +3645,13 @@
         <v>19560</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M12" s="7">
         <v>48</v>
@@ -3666,13 +3660,13 @@
         <v>31696</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3681,13 @@
         <v>3362</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3702,13 +3696,13 @@
         <v>916</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3717,13 +3711,13 @@
         <v>4278</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3732,13 @@
         <v>1307</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3759,7 +3753,7 @@
         <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3768,13 +3762,13 @@
         <v>1307</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3836,13 @@
         <v>29021</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -3857,13 +3851,13 @@
         <v>36768</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
@@ -3872,13 +3866,13 @@
         <v>65789</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3887,13 @@
         <v>26286</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -3908,13 +3902,13 @@
         <v>22534</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>71</v>
@@ -4001,7 +3995,7 @@
         <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4016,7 +4010,7 @@
         <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4031,7 +4025,7 @@
         <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,7 +4046,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4067,7 +4061,7 @@
         <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4082,7 +4076,7 @@
         <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,10 +4162,10 @@
         <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>493</v>
@@ -4180,13 +4174,13 @@
         <v>345292</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4195,13 @@
         <v>130830</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H23" s="7">
         <v>179</v>
@@ -4216,13 +4210,13 @@
         <v>124893</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M23" s="7">
         <v>369</v>
@@ -4231,13 +4225,13 @@
         <v>255723</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4246,13 @@
         <v>19702</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -4267,13 +4261,13 @@
         <v>24422</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M24" s="7">
         <v>66</v>
@@ -4282,13 +4276,13 @@
         <v>44124</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4297,13 @@
         <v>3986</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -4318,13 +4312,13 @@
         <v>1974</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4333,13 +4327,13 @@
         <v>5959</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>303</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4348,13 @@
         <v>1307</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -4375,7 +4369,7 @@
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4390,7 +4384,7 @@
         <v>87</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,7 +4440,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +4459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EA1FA0-EA59-473A-B548-21362A40A3D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CEFCFB-FF65-4E98-A172-79F01661E271}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4482,7 +4476,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4589,13 +4583,13 @@
         <v>23466</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4604,13 +4598,13 @@
         <v>15598</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -4619,13 +4613,13 @@
         <v>39065</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>315</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4634,13 @@
         <v>9337</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4655,13 +4649,13 @@
         <v>12473</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -4670,13 +4664,13 @@
         <v>21810</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>68</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4685,13 @@
         <v>2272</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4706,13 +4700,13 @@
         <v>3743</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>38</v>
+        <v>324</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -4721,13 +4715,13 @@
         <v>6015</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4736,13 @@
         <v>891</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4763,7 +4757,7 @@
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4772,13 +4766,13 @@
         <v>891</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,7 +4793,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4814,7 +4808,7 @@
         <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4829,7 +4823,7 @@
         <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4891,13 @@
         <v>153032</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>207</v>
@@ -4912,13 +4906,13 @@
         <v>143270</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>413</v>
@@ -4927,13 +4921,13 @@
         <v>296302</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4942,13 @@
         <v>80983</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
         <v>130</v>
@@ -4963,13 +4957,13 @@
         <v>90196</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
         <v>243</v>
@@ -4978,13 +4972,13 @@
         <v>171180</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +4993,13 @@
         <v>11887</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -5014,13 +5008,13 @@
         <v>11540</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M12" s="7">
         <v>32</v>
@@ -5029,13 +5023,13 @@
         <v>23428</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>362</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,7 +5050,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -5065,13 +5059,13 @@
         <v>5029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5080,13 +5074,13 @@
         <v>5788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,7 +5101,7 @@
         <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5116,13 +5110,13 @@
         <v>524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>367</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -5137,7 +5131,7 @@
         <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5199,13 @@
         <v>51672</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -5220,13 +5214,13 @@
         <v>49423</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M16" s="7">
         <v>140</v>
@@ -5235,13 +5229,13 @@
         <v>101095</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5250,13 @@
         <v>24569</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -5271,13 +5265,13 @@
         <v>23524</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -5286,13 +5280,13 @@
         <v>48093</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5301,13 @@
         <v>1820</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -5322,13 +5316,13 @@
         <v>1451</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>237</v>
+        <v>390</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>391</v>
+        <v>197</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -5337,13 +5331,13 @@
         <v>3271</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,7 +5358,7 @@
         <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5379,7 +5373,7 @@
         <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5394,7 +5388,7 @@
         <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,7 +5409,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5430,7 +5424,7 @@
         <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5445,7 +5439,7 @@
         <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5507,13 @@
         <v>228170</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H22" s="7">
         <v>298</v>
@@ -5528,13 +5522,13 @@
         <v>208291</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M22" s="7">
         <v>607</v>
@@ -5543,13 +5537,13 @@
         <v>436462</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5558,13 @@
         <v>114890</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H23" s="7">
         <v>181</v>
@@ -5579,13 +5573,13 @@
         <v>126194</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M23" s="7">
         <v>342</v>
@@ -5594,13 +5588,13 @@
         <v>241083</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5609,13 @@
         <v>15979</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -5630,13 +5624,13 @@
         <v>16734</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -5645,13 +5639,13 @@
         <v>32713</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,7 +5666,7 @@
         <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>423</v>
+        <v>49</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -5681,13 +5675,13 @@
         <v>5029</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>424</v>
+        <v>123</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -5696,13 +5690,13 @@
         <v>6680</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>242</v>
+        <v>422</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>423</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,7 +5717,7 @@
         <v>44</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5732,13 +5726,13 @@
         <v>524</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5747,13 +5741,13 @@
         <v>524</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,7 +5803,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
